--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D21565C-D6F6-49A2-B836-82B1861AFAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C26FBCB-837B-497C-9550-2A1C1D6874B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02F145A9-8913-4827-AAAD-5B68438B6360}"/>
   </bookViews>
   <sheets>
-    <sheet name="국내재고조회" sheetId="1" r:id="rId1"/>
+    <sheet name="NMR" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -879,7 +879,7 @@
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C26FBCB-837B-497C-9550-2A1C1D6874B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9737AEC8-05F4-4A4E-ACBA-C8CF6DA90F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02F145A9-8913-4827-AAAD-5B68438B6360}"/>
   </bookViews>
   <sheets>
-    <sheet name="NMR" sheetId="1" r:id="rId1"/>
+    <sheet name="nmr" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -879,7 +879,7 @@
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9737AEC8-05F4-4A4E-ACBA-C8CF6DA90F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5066061-F482-4FAD-BD2F-EAF88A0F1991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02F145A9-8913-4827-AAAD-5B68438B6360}"/>
   </bookViews>
   <sheets>
-    <sheet name="nmr" sheetId="1" r:id="rId1"/>
+    <sheet name="NMR" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -879,7 +879,7 @@
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5066061-F482-4FAD-BD2F-EAF88A0F1991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6338D6-99FF-48BC-8ECA-C445BE59972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02F145A9-8913-4827-AAAD-5B68438B6360}"/>
   </bookViews>
@@ -878,1386 +878,1386 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6394BB4-3753-4F97-9812-9ADB900A9742}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="7"/>
-    <col min="2" max="2" width="15.125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="55.375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="52.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="36.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="15.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="55.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="52.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="36.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1">
-      <c r="A1" s="2">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="56" t="s">
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="21" thickBot="1">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="21" thickBot="1">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21" thickBot="1">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21" thickBot="1">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21" thickBot="1">
-      <c r="A3" s="4">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="21" thickBot="1">
-      <c r="A4" s="9">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="D6" s="37"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="21" thickBot="1">
-      <c r="A5" s="9">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="21" thickBot="1">
-      <c r="A6" s="4">
+      <c r="G6" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="7" spans="1:7" ht="21" thickBot="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="3"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="21" thickBot="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="3"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="21" thickBot="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="21" thickBot="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="21" thickBot="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="3"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="21" thickBot="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="3"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="21" thickBot="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="3"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="21" thickBot="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="3"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="21" thickBot="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="3"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="21" thickBot="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="3"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="21" thickBot="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="21" thickBot="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="3"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="3"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="21" thickBot="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="3"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="21" thickBot="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="3"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="21" thickBot="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="16"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" ht="21" thickBot="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="3"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" ht="21" thickBot="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="3"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="21" thickBot="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="3"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" ht="21" thickBot="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="3"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="21" thickBot="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="3"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="21" thickBot="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="3"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="21" thickBot="1">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="3"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="21" thickBot="1">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="19"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" ht="21" thickBot="1">
-      <c r="A31" s="4"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="3"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="21" thickBot="1">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="3"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="21" thickBot="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="3"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="21" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="3"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="21" thickBot="1">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="3"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="21" thickBot="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="3"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="21" thickBot="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="3"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="21" thickBot="1">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="3"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="21" thickBot="1">
-      <c r="A39" s="4"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="3"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="21" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="3"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="21" thickBot="1">
-      <c r="A41" s="4"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="3"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="21" thickBot="1">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="3"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="21" thickBot="1">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="3"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="21" thickBot="1">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="3"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="21" thickBot="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="3"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="21" thickBot="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="3"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" ht="21" thickBot="1">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="3"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" ht="21" thickBot="1">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="3"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="21" thickBot="1">
-      <c r="A49" s="4"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="3"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="21" thickBot="1">
-      <c r="A50" s="11"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="22"/>
       <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="3"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="21" thickBot="1">
-      <c r="A51" s="4"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="3"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="21" thickBot="1">
-      <c r="A52" s="4"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="3"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="21" thickBot="1">
-      <c r="A53" s="4"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="3"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7" ht="21" thickBot="1">
-      <c r="A54" s="4"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="3"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="21" thickBot="1">
-      <c r="A55" s="4"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="3"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="21" thickBot="1">
-      <c r="A56" s="4"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="3"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" ht="21" thickBot="1">
-      <c r="A57" s="4"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="3"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" ht="21" thickBot="1">
-      <c r="A58" s="4"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="3"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" ht="21" thickBot="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="3"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" ht="21" thickBot="1">
-      <c r="A60" s="4"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="3"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7" ht="21" thickBot="1">
-      <c r="A61" s="4"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="3"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7" ht="21" thickBot="1">
-      <c r="A62" s="4"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="3"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" ht="21" thickBot="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="3"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="21" thickBot="1">
-      <c r="A64" s="24"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="23"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" ht="21" thickBot="1">
-      <c r="A65" s="4"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="3"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="21" thickBot="1">
-      <c r="A66" s="4"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="3"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" ht="21" thickBot="1">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="3"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="20"/>
     </row>
     <row r="68" spans="1:7" ht="21" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="3"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" ht="21" thickBot="1">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="3"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" ht="21" thickBot="1">
-      <c r="A70" s="4"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="3"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" ht="21" thickBot="1">
-      <c r="A71" s="4"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="3"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" ht="21" thickBot="1">
-      <c r="A72" s="4"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="3"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" ht="21" thickBot="1">
-      <c r="A73" s="4"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="3"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" ht="21" thickBot="1">
-      <c r="A74" s="4"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="21"/>
       <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="3"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" ht="21" thickBot="1">
-      <c r="A75" s="4"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="57"/>
-      <c r="G75" s="3"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" ht="21" thickBot="1">
-      <c r="A76" s="4"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="3"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" ht="21" thickBot="1">
-      <c r="A77" s="4"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="57"/>
-      <c r="G77" s="3"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="57"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" ht="21" thickBot="1">
-      <c r="A78" s="4"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="57"/>
-      <c r="G78" s="3"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="57"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" ht="21" thickBot="1">
-      <c r="A79" s="4"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="57"/>
-      <c r="G79" s="8"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" ht="21" thickBot="1">
-      <c r="A80" s="4"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="8"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" ht="21" thickBot="1">
-      <c r="A81" s="4"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="3"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" ht="21" thickBot="1">
-      <c r="A82" s="4"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="3"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" ht="21" thickBot="1">
-      <c r="A83" s="4"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="57"/>
-      <c r="G83" s="3"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" ht="21" thickBot="1">
-      <c r="A84" s="4"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="3"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" ht="21" thickBot="1">
-      <c r="A85" s="4"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="57"/>
-      <c r="G85" s="3"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" ht="21" thickBot="1">
-      <c r="A86" s="4"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="3"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7" ht="21" thickBot="1">
-      <c r="A87" s="4"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="57"/>
-      <c r="G87" s="3"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" ht="21" thickBot="1">
-      <c r="A88" s="26"/>
-      <c r="B88" s="27"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="8"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="1:7" ht="21" thickBot="1">
-      <c r="A89" s="9"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="8"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="9"/>
     </row>
     <row r="90" spans="1:7" ht="21" thickBot="1">
-      <c r="A90" s="11"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="48"/>
-      <c r="F90" s="59"/>
-      <c r="G90" s="29"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="11"/>
     </row>
     <row r="91" spans="1:7" ht="21" thickBot="1">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="3"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" ht="21" thickBot="1">
-      <c r="A92" s="4"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="57"/>
-      <c r="G92" s="3"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7" ht="21" thickBot="1">
-      <c r="A93" s="4"/>
+      <c r="A93" s="21"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="3"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" ht="21" thickBot="1">
-      <c r="A94" s="4"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="57"/>
-      <c r="G94" s="3"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" ht="21" thickBot="1">
-      <c r="A95" s="4"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="57"/>
-      <c r="G95" s="3"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7" ht="21" thickBot="1">
-      <c r="A96" s="4"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="57"/>
-      <c r="G96" s="3"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" ht="21" thickBot="1">
-      <c r="A97" s="4"/>
+      <c r="A97" s="21"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="57"/>
-      <c r="G97" s="3"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7" ht="21" thickBot="1">
-      <c r="A98" s="4"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="57"/>
-      <c r="G98" s="3"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7" ht="21" thickBot="1">
-      <c r="A99" s="4"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="46"/>
-      <c r="F99" s="57"/>
-      <c r="G99" s="3"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" ht="21" thickBot="1">
-      <c r="A100" s="17"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="31"/>
       <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="57"/>
-      <c r="G100" s="3"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="17"/>
     </row>
     <row r="101" spans="1:7" ht="21" thickBot="1">
-      <c r="A101" s="4"/>
+      <c r="A101" s="21"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="3"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7" ht="21" thickBot="1">
-      <c r="A102" s="4"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="46"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="3"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7" ht="21" thickBot="1">
-      <c r="A103" s="4"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="46"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="3"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" ht="21" thickBot="1">
-      <c r="A104" s="4"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="3"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7" ht="21" thickBot="1">
       <c r="A105" s="21"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="46"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="3"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="21"/>
     </row>
     <row r="106" spans="1:7" ht="21" thickBot="1">
       <c r="A106" s="21"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="3"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="21"/>
     </row>
     <row r="107" spans="1:7" ht="21" thickBot="1">
-      <c r="A107" s="21"/>
-      <c r="B107" s="32"/>
+      <c r="A107" s="32"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="21"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="3"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="21"/>
     </row>
     <row r="108" spans="1:7" ht="21" thickBot="1">
       <c r="A108" s="21"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="46"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="3"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="21"/>
     </row>
     <row r="109" spans="1:7" ht="21" thickBot="1">
       <c r="A109" s="21"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="3"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="21"/>
     </row>
     <row r="110" spans="1:7" ht="21" thickBot="1">
       <c r="A110" s="21"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="46"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="3"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="21"/>
     </row>
     <row r="111" spans="1:7" ht="21" thickBot="1">
       <c r="A111" s="21"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="46"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="3"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="21"/>
     </row>
     <row r="112" spans="1:7" ht="21" thickBot="1">
       <c r="A112" s="21"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="46"/>
-      <c r="F112" s="57"/>
-      <c r="G112" s="3"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="21"/>
     </row>
     <row r="113" spans="1:7" ht="21" thickBot="1">
       <c r="A113" s="21"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="46"/>
-      <c r="F113" s="57"/>
-      <c r="G113" s="3"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="21"/>
     </row>
     <row r="114" spans="1:7" ht="21" thickBot="1">
-      <c r="A114" s="21"/>
-      <c r="B114" s="5"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
-      <c r="E114" s="46"/>
-      <c r="F114" s="57"/>
-      <c r="G114" s="3"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="21"/>
     </row>
     <row r="115" spans="1:7" ht="21" thickBot="1">
-      <c r="A115" s="21"/>
+      <c r="A115" s="17"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="46"/>
-      <c r="F115" s="57"/>
-      <c r="G115" s="3"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="21"/>
     </row>
     <row r="116" spans="1:7" ht="21" thickBot="1">
-      <c r="A116" s="33"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="53"/>
-      <c r="F116" s="57"/>
-      <c r="G116" s="3"/>
+      <c r="D116" s="53"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="33"/>
     </row>
     <row r="117" spans="1:7" ht="21" thickBot="1">
-      <c r="A117" s="33"/>
+      <c r="A117" s="21"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="53"/>
-      <c r="F117" s="57"/>
-      <c r="G117" s="3"/>
+      <c r="D117" s="53"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="33"/>
     </row>
     <row r="118" spans="1:7" ht="21" thickBot="1">
-      <c r="A118" s="34"/>
-      <c r="B118" s="10"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="54"/>
-      <c r="F118" s="57"/>
-      <c r="G118" s="8"/>
+      <c r="D118" s="54"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="34"/>
     </row>
     <row r="119" spans="1:7" ht="21" thickBot="1">
-      <c r="A119" s="33"/>
+      <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="53"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="3"/>
+      <c r="D119" s="53"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="33"/>
     </row>
     <row r="120" spans="1:7" ht="21" thickBot="1">
-      <c r="A120" s="33"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="53"/>
-      <c r="F120" s="57"/>
-      <c r="G120" s="3"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="33"/>
     </row>
     <row r="121" spans="1:7" ht="21" thickBot="1">
       <c r="A121" s="33"/>
       <c r="B121" s="33"/>
       <c r="C121" s="33"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="3"/>
+      <c r="D121" s="53"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="33"/>
     </row>
     <row r="122" spans="1:7" ht="21" thickBot="1">
       <c r="A122" s="33"/>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="53"/>
-      <c r="F122" s="57"/>
-      <c r="G122" s="3"/>
+      <c r="D122" s="53"/>
+      <c r="E122" s="57"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="33"/>
     </row>
     <row r="123" spans="1:7" ht="21" thickBot="1">
       <c r="A123" s="33"/>
       <c r="B123" s="33"/>
       <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="53"/>
-      <c r="F123" s="57"/>
-      <c r="G123" s="3"/>
+      <c r="D123" s="53"/>
+      <c r="E123" s="57"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="33"/>
     </row>
     <row r="124" spans="1:7" ht="21" thickBot="1">
       <c r="A124" s="35"/>
       <c r="B124" s="35"/>
       <c r="C124" s="35"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="55"/>
-      <c r="F124" s="59"/>
-      <c r="G124" s="29"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="35"/>
     </row>
     <row r="125" spans="1:7" ht="21" thickBot="1">
       <c r="A125" s="35"/>
       <c r="B125" s="35"/>
       <c r="C125" s="35"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="59"/>
-      <c r="G125" s="29"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="59"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="35"/>
     </row>
     <row r="126" spans="1:7" ht="21" thickBot="1">
       <c r="A126" s="33"/>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="53"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="3"/>
+      <c r="D126" s="53"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="33"/>
     </row>
     <row r="127" spans="1:7" ht="21" thickBot="1">
       <c r="A127" s="33"/>
       <c r="B127" s="33"/>
       <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="53"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="3"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="33"/>
     </row>
     <row r="128" spans="1:7" ht="21" thickBot="1">
       <c r="A128" s="33"/>
       <c r="B128" s="33"/>
       <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="53"/>
-      <c r="F128" s="57"/>
-      <c r="G128" s="3"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="33"/>
     </row>
     <row r="129" spans="1:7" ht="21" thickBot="1">
       <c r="A129" s="34"/>
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="54"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="8"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="34"/>
     </row>
     <row r="130" spans="1:7" ht="21" thickBot="1">
       <c r="A130" s="33"/>
       <c r="B130" s="33"/>
       <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="53"/>
-      <c r="F130" s="57"/>
-      <c r="G130" s="3"/>
+      <c r="D130" s="53"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="3"/>
+      <c r="G130" s="33"/>
     </row>
     <row r="131" spans="1:7" ht="21" thickBot="1">
       <c r="A131" s="33"/>
       <c r="B131" s="33"/>
       <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="53"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="3"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="3"/>
+      <c r="G131" s="33"/>
     </row>
     <row r="132" spans="1:7" ht="21" thickBot="1">
       <c r="A132" s="33"/>
       <c r="B132" s="33"/>
       <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="3"/>
+      <c r="D132" s="53"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="3"/>
+      <c r="G132" s="33"/>
     </row>
     <row r="133" spans="1:7" ht="21" thickBot="1">
       <c r="A133" s="33"/>
       <c r="B133" s="33"/>
       <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="53"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="3"/>
+      <c r="D133" s="53"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="33"/>
     </row>
     <row r="134" spans="1:7" ht="21" thickBot="1">
       <c r="A134" s="33"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="53"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="3"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="33"/>
     </row>
     <row r="135" spans="1:7" ht="21" thickBot="1">
       <c r="A135" s="33"/>
       <c r="B135" s="33"/>
       <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="53"/>
-      <c r="F135" s="57"/>
-      <c r="G135" s="3"/>
+      <c r="D135" s="53"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="33"/>
     </row>
     <row r="136" spans="1:7" ht="21" thickBot="1">
       <c r="A136" s="33"/>
       <c r="B136" s="33"/>
       <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="57"/>
-      <c r="G136" s="3"/>
+      <c r="D136" s="53"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="33"/>
     </row>
     <row r="137" spans="1:7" ht="21" thickBot="1">
       <c r="A137" s="33"/>
       <c r="B137" s="33"/>
       <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="53"/>
-      <c r="F137" s="57"/>
-      <c r="G137" s="3"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="57"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="33"/>
     </row>
     <row r="138" spans="1:7" ht="21" thickBot="1">
       <c r="A138" s="33"/>
       <c r="B138" s="33"/>
       <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="53"/>
-      <c r="F138" s="57"/>
+      <c r="D138" s="53"/>
+      <c r="E138" s="57"/>
+      <c r="G138" s="33"/>
     </row>
     <row r="139" spans="1:7" ht="21" thickBot="1">
       <c r="A139" s="33"/>
       <c r="B139" s="33"/>
       <c r="C139" s="33"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="53"/>
-      <c r="F139" s="57"/>
-      <c r="G139" s="3"/>
+      <c r="D139" s="53"/>
+      <c r="E139" s="57"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="33"/>
     </row>
     <row r="140" spans="1:7" ht="21" thickBot="1">
       <c r="A140" s="33"/>
       <c r="B140" s="33"/>
       <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="53"/>
-      <c r="F140" s="57"/>
-      <c r="G140" s="3"/>
+      <c r="D140" s="53"/>
+      <c r="E140" s="57"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="33"/>
     </row>
     <row r="141" spans="1:7" ht="21" thickBot="1">
       <c r="A141" s="33"/>
       <c r="B141" s="33"/>
       <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="53"/>
-      <c r="F141" s="57"/>
-      <c r="G141" s="3"/>
+      <c r="D141" s="53"/>
+      <c r="E141" s="57"/>
+      <c r="F141" s="3"/>
+      <c r="G141" s="33"/>
     </row>
     <row r="142" spans="1:7" ht="21" thickBot="1">
       <c r="A142" s="33"/>
       <c r="B142" s="33"/>
       <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="53"/>
-      <c r="F142" s="57"/>
-      <c r="G142" s="3"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="57"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="33"/>
     </row>
     <row r="143" spans="1:7" ht="21" thickBot="1">
       <c r="A143" s="33"/>
       <c r="B143" s="33"/>
       <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="53"/>
-      <c r="F143" s="57"/>
-      <c r="G143" s="3"/>
+      <c r="D143" s="53"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="33"/>
     </row>
     <row r="144" spans="1:7" ht="21" thickBot="1">
       <c r="A144" s="33"/>
       <c r="B144" s="33"/>
       <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="53"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="3"/>
+      <c r="D144" s="53"/>
+      <c r="E144" s="57"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="33"/>
     </row>
     <row r="145" spans="1:7" ht="21" thickBot="1">
       <c r="A145" s="33"/>
       <c r="B145" s="33"/>
       <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="53"/>
-      <c r="F145" s="57"/>
-      <c r="G145" s="3"/>
+      <c r="D145" s="53"/>
+      <c r="E145" s="57"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6338D6-99FF-48BC-8ECA-C445BE59972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DEE4DF-6383-41D5-AB0E-97BEF8887243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02F145A9-8913-4827-AAAD-5B68438B6360}"/>
   </bookViews>
   <sheets>
-    <sheet name="NMR" sheetId="1" r:id="rId1"/>
+    <sheet name="part" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6394BB4-3753-4F97-9812-9ADB900A9742}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DEE4DF-6383-41D5-AB0E-97BEF8887243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C54A99F-B1BA-44C3-A921-EBA8D9BC3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02F145A9-8913-4827-AAAD-5B68438B6360}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Rack</t>
   </si>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>PartName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6394BB4-3753-4F97-9812-9ADB900A9742}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -912,8 +916,8 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2">
-        <v>0</v>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1">

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C54A99F-B1BA-44C3-A921-EBA8D9BC3445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718375A6-D991-4D02-8111-E2488827C176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{02F145A9-8913-4827-AAAD-5B68438B6360}"/>
+    <workbookView xWindow="1590" yWindow="105" windowWidth="21600" windowHeight="15210" xr2:uid="{02F145A9-8913-4827-AAAD-5B68438B6360}"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
@@ -83,15 +83,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CCCCCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PartName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCasdfasdfasdfasdfasdfasd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,7 +883,7 @@
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" thickBot="1">
@@ -985,7 +985,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="57"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\Desktop\android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC2E186F-3742-4F5E-BE8B-E05297B7B86A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B483CE5D-1EEB-410F-9530-5807232CACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
   </bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684440D7-6658-4788-801D-3CED29463A65}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B483CE5D-1EEB-410F-9530-5807232CACB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65049B21-1DF5-41FD-B538-AA67F06D7E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Part#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>CCCCCCasdfasdfasdfasdfasdfasd</t>
+  </si>
+  <si>
+    <t>Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -495,375 +499,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684440D7-6658-4788-801D-3CED29463A65}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65049B21-1DF5-41FD-B538-AA67F06D7E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200FE81A-3F95-436F-9467-A3189163AEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Part#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>CCCCCCasdfasdfasdfasdfasdfasd</t>
-  </si>
-  <si>
-    <t>Check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -502,18 +498,16 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.75" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,247 +624,247 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200FE81A-3F95-436F-9467-A3189163AEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D58455-4C10-46E2-B68B-7793F8E5A930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
   </bookViews>
@@ -155,11 +155,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,333 +495,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684440D7-6658-4788-801D-3CED29463A65}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.75" customWidth="1"/>
-    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="31.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2">
+      <c r="G3" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="2">
+      <c r="G6" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -830,7 +832,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -839,7 +841,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -848,7 +850,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -857,7 +859,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\Desktop\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D58455-4C10-46E2-B68B-7793F8E5A930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5955B7-92F6-4806-B016-C26FD3F33E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
+    <workbookView xWindow="7200" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
   </bookViews>
   <sheets>
-    <sheet name="part" sheetId="1" r:id="rId1"/>
+    <sheet name="Part" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -570,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -589,7 +589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -606,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -625,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -634,7 +634,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -643,7 +643,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -652,7 +652,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -661,7 +661,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -670,7 +670,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -679,7 +679,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -688,7 +688,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -697,7 +697,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -706,7 +706,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -715,7 +715,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -724,7 +724,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -733,7 +733,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -742,7 +742,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -751,7 +751,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -760,7 +760,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -769,7 +769,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -778,7 +778,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -787,7 +787,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -796,7 +796,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -805,7 +805,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -814,7 +814,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -823,7 +823,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -832,7 +832,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -841,7 +841,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -850,7 +850,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -859,7 +859,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\Desktop\android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5955B7-92F6-4806-B016-C26FD3F33E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5230F3-D223-41D8-8BDE-A98EFFBCAFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
   </bookViews>
   <sheets>
-    <sheet name="Part" sheetId="1" r:id="rId1"/>
+    <sheet name="part" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5230F3-D223-41D8-8BDE-A98EFFBCAFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF8AC27-B0CA-4F3A-BB89-7681567BD960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
+    <workbookView xWindow="7125" yWindow="7695" windowWidth="21600" windowHeight="15210" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Part#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,39 +58,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Rack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>A123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C548</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AA</t>
-  </si>
-  <si>
-    <t>B213</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>C123123</t>
-  </si>
-  <si>
-    <t>CCCCCCasdfasdfasdfasdfasdfasd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPSO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -495,378 +488,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684440D7-6658-4788-801D-3CED29463A65}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="31.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6756</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -1,108 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF8AC27-B0CA-4F3A-BB89-7681567BD960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE821CFE-D442-47E0-966F-50D327868E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="7695" windowWidth="21600" windowHeight="15210" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
+    <workbookView xWindow="2730" yWindow="990" windowWidth="21600" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Part#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Serial #</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PartName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>사용처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rack</t>
   </si>
   <si>
     <t>Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C548</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B213</t>
+  </si>
+  <si>
+    <t>C123123</t>
   </si>
   <si>
     <t>AA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPSO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>CCCCCCasdfasdfasdfasdfasd</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>A3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -125,41 +116,34 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -172,9 +156,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,44 +166,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -247,31 +231,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -299,26 +266,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -327,244 +277,296 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684440D7-6658-4788-801D-3CED29463A65}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
         <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>6756</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE821CFE-D442-47E0-966F-50D327868E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F084C97-C46B-4860-AE09-E737D37C46DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="990" windowWidth="21600" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Part#</t>
   </si>
@@ -58,9 +58,6 @@
     <t>BB</t>
   </si>
   <si>
-    <t>CCCCCCasdfasdfasdfasdfasd</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
@@ -68,6 +65,10 @@
   </si>
   <si>
     <t>A3</t>
+  </si>
+  <si>
+    <t>asdfasdfasdfasdfs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -444,9 +445,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -481,11 +487,8 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -501,11 +504,8 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -521,11 +521,8 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -539,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -555,11 +552,8 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>6</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F084C97-C46B-4860-AE09-E737D37C46DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CC86A8-592F-46E9-894C-4E5128E926CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="990" windowWidth="21600" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="290">
   <si>
     <t>Part#</t>
   </si>
@@ -43,21 +43,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>A123</t>
-  </si>
-  <si>
-    <t>B213</t>
-  </si>
-  <si>
-    <t>C123123</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
@@ -67,15 +52,896 @@
     <t>A3</t>
   </si>
   <si>
-    <t>asdfasdfasdfasdfs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Z116985</t>
+  </si>
+  <si>
+    <t>Z104783</t>
+  </si>
+  <si>
+    <t>Z149520</t>
+  </si>
+  <si>
+    <t>Z102930</t>
+  </si>
+  <si>
+    <t>Z148391</t>
+  </si>
+  <si>
+    <t>H12588</t>
+  </si>
+  <si>
+    <t>W1345049</t>
+  </si>
+  <si>
+    <t>Z107413</t>
+  </si>
+  <si>
+    <t>W1345050</t>
+  </si>
+  <si>
+    <t>H153448F1</t>
+  </si>
+  <si>
+    <t>Z102520</t>
+  </si>
+  <si>
+    <t>Z109264</t>
+  </si>
+  <si>
+    <t>Z6685</t>
+  </si>
+  <si>
+    <t>Z103080</t>
+  </si>
+  <si>
+    <t>Z003955</t>
+  </si>
+  <si>
+    <t>H5483</t>
+  </si>
+  <si>
+    <t>H14109</t>
+  </si>
+  <si>
+    <t>Z003936</t>
+  </si>
+  <si>
+    <t>Z128143</t>
+  </si>
+  <si>
+    <t>H9984</t>
+  </si>
+  <si>
+    <t>Z121625</t>
+  </si>
+  <si>
+    <t>Z148270</t>
+  </si>
+  <si>
+    <t>Z128045</t>
+  </si>
+  <si>
+    <t>Z003951</t>
+  </si>
+  <si>
+    <t>Z102116</t>
+  </si>
+  <si>
+    <t>Z003265</t>
+  </si>
+  <si>
+    <t>Z100818</t>
+  </si>
+  <si>
+    <t>Z162978</t>
+  </si>
+  <si>
+    <t>H153455F1</t>
+  </si>
+  <si>
+    <t>Z156496</t>
+  </si>
+  <si>
+    <t>Z119237</t>
+  </si>
+  <si>
+    <t>Z119238</t>
+  </si>
+  <si>
+    <t>Z174024</t>
+  </si>
+  <si>
+    <t>Z124567</t>
+  </si>
+  <si>
+    <t>Z117631</t>
+  </si>
+  <si>
+    <t>Z149850</t>
+  </si>
+  <si>
+    <t>Z117129</t>
+  </si>
+  <si>
+    <t>W133936</t>
+  </si>
+  <si>
+    <t>Z003477</t>
+  </si>
+  <si>
+    <t>W1345096</t>
+  </si>
+  <si>
+    <t>W1345083</t>
+  </si>
+  <si>
+    <t>Z130588</t>
+  </si>
+  <si>
+    <t>Z115191</t>
+  </si>
+  <si>
+    <t>Z175985</t>
+  </si>
+  <si>
+    <t>Z116923</t>
+  </si>
+  <si>
+    <t>Z109888</t>
+  </si>
+  <si>
+    <t>Z111093</t>
+  </si>
+  <si>
+    <t>Z121242</t>
+  </si>
+  <si>
+    <t>Z139305</t>
+  </si>
+  <si>
+    <t>Z9524</t>
+  </si>
+  <si>
+    <t>Z109890</t>
+  </si>
+  <si>
+    <t>Z104844</t>
+  </si>
+  <si>
+    <t>Z73436.1</t>
+  </si>
+  <si>
+    <t>49426, 49425</t>
+  </si>
+  <si>
+    <t>Z117130</t>
+  </si>
+  <si>
+    <t>Z111143</t>
+  </si>
+  <si>
+    <t>Z133424</t>
+  </si>
+  <si>
+    <t>Z109889</t>
+  </si>
+  <si>
+    <t>Z102117</t>
+  </si>
+  <si>
+    <t>Z149510</t>
+  </si>
+  <si>
+    <t>Z115193</t>
+  </si>
+  <si>
+    <t>Z11656</t>
+  </si>
+  <si>
+    <t>Z49734.1</t>
+  </si>
+  <si>
+    <t>Z49732.3</t>
+  </si>
+  <si>
+    <t>Z103204</t>
+  </si>
+  <si>
+    <t>Z003472</t>
+  </si>
+  <si>
+    <t>Z003505</t>
+  </si>
+  <si>
+    <t>Z101617</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z131927</t>
+  </si>
+  <si>
+    <t>Z131928</t>
+  </si>
+  <si>
+    <t>Z100977</t>
+  </si>
+  <si>
+    <t>Z128274</t>
+  </si>
+  <si>
+    <t>Z104432</t>
+  </si>
+  <si>
+    <t>W1101558</t>
+  </si>
+  <si>
+    <t>Z158987</t>
+  </si>
+  <si>
+    <t>1-28171</t>
+  </si>
+  <si>
+    <t>z177865</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z109889</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z178831</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z162978</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z150089</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z128045</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z128071</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z177674</t>
+  </si>
+  <si>
+    <t>Z111143</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z102026</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z111092</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z150090</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQS REF /3  600</t>
+  </si>
+  <si>
+    <t>AQS PSM HPLNA</t>
+  </si>
+  <si>
+    <t>AV4 PSM-D</t>
+  </si>
+  <si>
+    <t>BSMS/2 SCB20 SHIM BD</t>
+  </si>
+  <si>
+    <t>AV4  TRX 1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQS POWER SUPPLY INCL CABLE </t>
+  </si>
+  <si>
+    <t>AQS BLA2BB</t>
+  </si>
+  <si>
+    <t>AQS PSM ADM</t>
+  </si>
+  <si>
+    <t>AQS POWER SUPPLY BLA</t>
+  </si>
+  <si>
+    <t>AV4 EPU/2</t>
+  </si>
+  <si>
+    <t>AQS DRU-E</t>
+  </si>
+  <si>
+    <t>S2/S1,   W1/S1  ADAPTER</t>
+  </si>
+  <si>
+    <t>FILTER 600   0-170</t>
+  </si>
+  <si>
+    <t>AQS SGU/2 400</t>
+  </si>
+  <si>
+    <t>AQS XBB19F 2HS 400</t>
+  </si>
+  <si>
+    <t>AQR AMPL</t>
+  </si>
+  <si>
+    <t>AQS PSD/3</t>
+  </si>
+  <si>
+    <t>AQS REF  600</t>
+  </si>
+  <si>
+    <t>AQS XBB19F 2HS CRP 400</t>
+  </si>
+  <si>
+    <t>IPSO</t>
+  </si>
+  <si>
+    <t>PSM -D</t>
+  </si>
+  <si>
+    <t>AV4 REFERENCE 1200</t>
+  </si>
+  <si>
+    <t>AQS INES PSM-BLA POWER SUPPLY</t>
+  </si>
+  <si>
+    <t>AQS 1H2H PREAMP 400</t>
+  </si>
+  <si>
+    <t>AQS RXAD 400</t>
+  </si>
+  <si>
+    <t>AQS REF BD 400</t>
+  </si>
+  <si>
+    <t>BSMS/2 ELCB EXT LOCK</t>
+  </si>
+  <si>
+    <t>AV4I SCU SYSTEM CONTROL UNIT</t>
+  </si>
+  <si>
+    <t>AQS IPSO</t>
+  </si>
+  <si>
+    <t>AV4 EPU HARD DISK</t>
+  </si>
+  <si>
+    <t>AV4 ETHERNET ROUTER RM 14 PORT</t>
+  </si>
+  <si>
+    <t>BSMS/2 ELCB EXT LOCK   ecl 07</t>
+  </si>
+  <si>
+    <t>BSMS/2 VTA TC-2T</t>
+  </si>
+  <si>
+    <t>BSMS/2 VATA LN2</t>
+  </si>
+  <si>
+    <t>S2/S1  W1/S1 길이 어댑터</t>
+  </si>
+  <si>
+    <t>SCU HARDISK 복사본 1개</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPPR/2 COVER2 MODULE </t>
+  </si>
+  <si>
+    <t>BSMS/2 POWER SUPPLY BOARD 7</t>
+  </si>
+  <si>
+    <t>AV4 PSM-48V POWER SUPPLY MODULE</t>
+  </si>
+  <si>
+    <t>AQS SGU/3 600</t>
+  </si>
+  <si>
+    <t>PBA BLAC7 PROCESSING BOARD</t>
+  </si>
+  <si>
+    <t>HPPR/2 2H MODULE 900</t>
+  </si>
+  <si>
+    <t>BLAXH 1H 300/100/150  200-600MHz</t>
+  </si>
+  <si>
+    <t>BLAXH 300/100 E 200-600MHz</t>
+  </si>
+  <si>
+    <t>RXAD/2 600</t>
+  </si>
+  <si>
+    <t>SPB</t>
+  </si>
+  <si>
+    <t>AV4I SCU-RCP ADAPTER RJ45/BNC</t>
+  </si>
+  <si>
+    <t>BSMS/2 VTA CRP</t>
+  </si>
+  <si>
+    <t>BSMS/2 SPB SENSOR PNEUMATIC  ECL05</t>
+  </si>
+  <si>
+    <t>BSMS/2 L-TRX 400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AQS DRU-E </t>
+  </si>
+  <si>
+    <t>AQS PSD / 3 BOARD</t>
+  </si>
+  <si>
+    <t>HPPR/2 XBB31P 2HP HPLNA 600</t>
+  </si>
+  <si>
+    <t>AQS PSM-48V 600W POWER SUPPLY</t>
+  </si>
+  <si>
+    <t>AV4 VARIABLE POWER SUPPLY BD</t>
+  </si>
+  <si>
+    <t>BST SHIM UPPER PART SB TYPE B</t>
+  </si>
+  <si>
+    <t>IPSO AQS HR UNIT</t>
+  </si>
+  <si>
+    <t>BSMS/2 LOCK TRANSCEIVER 600</t>
+  </si>
+  <si>
+    <t>IPSO AQS</t>
+  </si>
+  <si>
+    <t>GAB/2</t>
+  </si>
+  <si>
+    <t>SHIMCOIL BOSS3 STD S1 PLUG</t>
+  </si>
+  <si>
+    <t>CRP ERSATZTEIL 2/2 WEGE VENTIL NO</t>
+  </si>
+  <si>
+    <t>CONSOLE  전원코드</t>
+  </si>
+  <si>
+    <t>BSMS/2 ELCB EXT LOCK   ecl 06</t>
+  </si>
+  <si>
+    <t>BSMS/2     GAB/2 GRAD AMPL</t>
+  </si>
+  <si>
+    <t>AQS SGU/2 400</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQS SGU/3 1200</t>
+  </si>
+  <si>
+    <t>BSMS/2 POWER SUPPLY 5</t>
+  </si>
+  <si>
+    <t>AQS REF/3 600</t>
+  </si>
+  <si>
+    <t>PSM-A2</t>
+  </si>
+  <si>
+    <t>PSM-D</t>
+  </si>
+  <si>
+    <t>BSMS/2 GAB/2 GRAD AMPL</t>
+  </si>
+  <si>
+    <t>AQS RXAD/2 600</t>
+  </si>
+  <si>
+    <t>BSMS/2 L-TRX 500</t>
+  </si>
+  <si>
+    <t>AQS RXAD 600</t>
+  </si>
+  <si>
+    <t>PSM-A</t>
+  </si>
+  <si>
+    <t>AV4 PSM-48V POWER supply module</t>
+  </si>
+  <si>
+    <t>BSMS/2 VARIABLE POWER SUPPLY BD, VPSB</t>
+  </si>
+  <si>
+    <t>ATMA PICS, NANOBAY용</t>
+  </si>
+  <si>
+    <t>BOSSI  S1</t>
+  </si>
+  <si>
+    <t>BOSS2  S3</t>
+  </si>
+  <si>
+    <t>BOSSIII  S1</t>
+  </si>
+  <si>
+    <t>HPPR 2 COVER MODULE</t>
+  </si>
+  <si>
+    <t>1H HPLNA MODULE 500</t>
+  </si>
+  <si>
+    <t>HPPR/2 2H MODULE 500</t>
+  </si>
+  <si>
+    <t>HPPR/2 XBB19F 2HS MODULE 500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLAXH300/100 E 200-6</t>
+  </si>
+  <si>
+    <t>SPB   ECL04</t>
+  </si>
+  <si>
+    <t>AQS/2 Fantray</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INES/3 PSM-24V 750W</t>
+  </si>
+  <si>
+    <t>AQS DRU</t>
+  </si>
+  <si>
+    <t>AQS 1H2H PREAMP400 CRP</t>
+  </si>
+  <si>
+    <t>AQS BLA2BB 20-400M</t>
+  </si>
+  <si>
+    <t>AQS RF-splitter</t>
+  </si>
+  <si>
+    <t>SPB   ECL05</t>
+  </si>
+  <si>
+    <t>BSMS/2 BVT3200A TEMP UNIT</t>
+  </si>
+  <si>
+    <t>CRP VENTILPLATTE CU/5</t>
+  </si>
+  <si>
+    <t>Standard sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPSO 17"</t>
+  </si>
+  <si>
+    <t>AV4 GAB/3</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTRX500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPPR2/ COVER2N MODULE</t>
+  </si>
+  <si>
+    <t>AV4 SCU</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AV4 BSMS POWER CONTROL BOARD</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AQS INES PSM-BLA POWER SUPPLY</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>INES/3 PSM-B POWER SUPPLY</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCB20 SHIM CURRENT BOARD</t>
+  </si>
+  <si>
+    <t>BSMS2 POWER SUPPLY BOARD5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPPR/2 XBB19F 2HP MODULE 500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPPR/2 XBB31P 2HP MODULE 500</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AV4 PSM-B POWER SUPPLY</t>
+  </si>
+  <si>
+    <t>지금 창고에 있음. HD에 안붙은 경험 있음. 데모장비에 확인 필요.</t>
+  </si>
+  <si>
+    <t>SSR1271로 오더된 새것.</t>
+  </si>
+  <si>
+    <t>정상.      코오롱에서 회수</t>
+  </si>
+  <si>
+    <t>정상.     강원대에서 회수</t>
+  </si>
+  <si>
+    <t>YUHS-MRI 출고 - 2024 0401 &gt; 교체 후 새제품 오더함</t>
+  </si>
+  <si>
+    <t>NO HDD</t>
+  </si>
+  <si>
+    <t>SSR 1278로  오더됨</t>
+  </si>
+  <si>
+    <t>금오공대  AVIII.    화학연구원</t>
+  </si>
+  <si>
+    <t>금오공대 AVIII</t>
+  </si>
+  <si>
+    <t>충북대에서회수,  5PPM에서 NOISE, 점검용으로사용가능</t>
+  </si>
+  <si>
+    <t>충북대 Console에서 회수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSR1278로 오더됨 </t>
+  </si>
+  <si>
+    <t>일동제약에서 회수한것. 정상</t>
+  </si>
+  <si>
+    <t>새파트, SSR 1248</t>
+  </si>
+  <si>
+    <t>아래쪽 문</t>
+  </si>
+  <si>
+    <t>SSR 1212 로 오더된것</t>
+  </si>
+  <si>
+    <t>SSR 1282로 오더된것</t>
+  </si>
+  <si>
+    <t>6773.  6627.  6025.  6257.  5877.  5990.  6663.   5987.   5895</t>
+  </si>
+  <si>
+    <t>Part room 에있음.</t>
+  </si>
+  <si>
+    <t>SSR 1258 로 오더된 것</t>
+  </si>
+  <si>
+    <t>SSR 1278 로 오더된 것</t>
+  </si>
+  <si>
+    <t>새거,   LG화학600 AMP 용으로 시킨 것임</t>
+  </si>
+  <si>
+    <t>라우터 없음 - st팜으로 오더 후 장착해야함</t>
+  </si>
+  <si>
+    <t>정상, 데모룸에있음</t>
+  </si>
+  <si>
+    <t>SSR 1278로  오더됨/ SG_출고_KBIO_ test20240325</t>
+  </si>
+  <si>
+    <t>lg화학에서 뗀것. VT gas만 안되고 나머지 정상</t>
+  </si>
+  <si>
+    <t>SSR 1276껀으로 오더함</t>
+  </si>
+  <si>
+    <t>SSR 1178로 오더함</t>
+  </si>
+  <si>
+    <t>연대원주에서 회수</t>
+  </si>
+  <si>
+    <t>SSR1099로 오더된것.</t>
+  </si>
+  <si>
+    <t>SSR1208로 오더된 새것.</t>
+  </si>
+  <si>
+    <t>SSR 1222로  order한것.</t>
+  </si>
+  <si>
+    <t>SPCI에서회수한것, 중고. 간헐적 ERROR 나지만 사용가능</t>
+  </si>
+  <si>
+    <t>새것,  SSR 1235번으로 시킨것.</t>
+  </si>
+  <si>
+    <t>듀폰꺼 수리완료된 것.</t>
+  </si>
+  <si>
+    <t>새것,  SSR 1238로 시킨것.</t>
+  </si>
+  <si>
+    <t>중외씨앤씨꺼 수리해 온것</t>
+  </si>
+  <si>
+    <t>현대차꺼  수리해온것.</t>
+  </si>
+  <si>
+    <t>성균관대 CORE400꺼  수리해 온것</t>
+  </si>
+  <si>
+    <t>CRP PLATFORM VALVE.</t>
+  </si>
+  <si>
+    <t>유한화학에서 회수됨</t>
+  </si>
+  <si>
+    <t>LG화학700꺼 수리완료해놓은것</t>
+  </si>
+  <si>
+    <t>경상대에서 회수됨</t>
+  </si>
+  <si>
+    <t>경상대에서회수됨</t>
+  </si>
+  <si>
+    <t>강원대에서회수됨</t>
+  </si>
+  <si>
+    <t>SSR 1272로 오더된 새것.</t>
+  </si>
+  <si>
+    <t>SSR 1277로 시킨것. 새것</t>
+  </si>
+  <si>
+    <t>대웅제약에서 회수됨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2개 </t>
+  </si>
+  <si>
+    <t>3개</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개</t>
+  </si>
+  <si>
+    <t>1개</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>대웅에서 회수됨</t>
+  </si>
+  <si>
+    <t>새거 parts room</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR1278로 오더됨</t>
+  </si>
+  <si>
+    <t>충북대 CONSOLE에서 회수</t>
+  </si>
+  <si>
+    <t>MRI-20240424입고-never used</t>
+  </si>
+  <si>
+    <t>카이스트에서 00 code 나타난 전적이 있음, 확인 필요.</t>
+  </si>
+  <si>
+    <t>SSR 1321로 오더한 새거.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>새오더</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR 1320오더껀</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR 1342</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR 1321</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR 1344</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR 1336</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>새거, 경북대설치중 오더한것.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>새거, 경북대에서 뺀것.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.03.13 재형 카이스트건으로 빌려감</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>고장(핀파손)</t>
+  </si>
+  <si>
+    <t>YUHS</t>
+  </si>
+  <si>
+    <t>ADD로 출고</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05-09출고  for 이화여대 </t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>경인양행출고후 재고문제로 오더안됨. 공장재고없음</t>
+  </si>
+  <si>
+    <t>2024.10.18 재형 카이스트 납품 후 새 재고 도착</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리중(없음)</t>
+  </si>
+  <si>
+    <t>2024.07.02 천안 삼성 SDI loan 해줬으나 불량</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+  </si>
+  <si>
+    <t>2024-12-03에 ADD로 출고함.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학연구원 대전 김태승씨로 반출 2024-10-07.  사용 완료됨</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> KAIST(신재선500MHz) 봉근 사용완료</t>
+  </si>
+  <si>
+    <t>다우케미컬 진천(현수) 사용완료</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +964,139 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,14 +1119,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,18 +1564,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="17.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,87 +1600,2004 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="18" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3304</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="35"/>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="18" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="35"/>
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
+    <row r="4" spans="1:7" ht="18" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2926</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="36" t="s">
+        <v>276</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
+    <row r="5" spans="1:7" ht="18" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="5">
+        <v>13113</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="35"/>
       <c r="G5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" spans="1:7" ht="18" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10707</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="35"/>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1267</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickBot="1">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2834</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9">
+        <v>521</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>536</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1587</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" thickBot="1">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2623</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" thickBot="1">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" thickBot="1">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>945</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="1:7" ht="18" thickBot="1">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="7">
+        <v>139</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3">
+        <v>129</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" ht="18" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1397</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1195</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3">
+        <v>527</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="1:5" ht="18" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1395</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="35"/>
+    </row>
+    <row r="21" spans="1:5" ht="18" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3282</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="35"/>
+    </row>
+    <row r="22" spans="1:5" ht="18" thickBot="1">
+      <c r="A22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4542</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" thickBot="1">
+      <c r="A23" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1317</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="35"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2802</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="35"/>
+    </row>
+    <row r="25" spans="1:5" ht="18" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1935</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="37" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3">
+        <v>89</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="1:5" ht="18" thickBot="1">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3">
+        <v>723</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="35"/>
+    </row>
+    <row r="28" spans="1:5" ht="18" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1656</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="35"/>
+    </row>
+    <row r="29" spans="1:5" ht="18" thickBot="1">
+      <c r="A29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="11">
+        <v>8409</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="35"/>
+    </row>
+    <row r="30" spans="1:5" ht="18" thickBot="1">
+      <c r="A30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="39" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A31" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="13">
+        <v>3069</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="35"/>
+    </row>
+    <row r="32" spans="1:5" ht="18" thickBot="1">
+      <c r="A32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1505</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" ht="18" thickBot="1">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2111</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="18" thickBot="1">
+      <c r="A34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="3">
+        <v>10055</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="35"/>
+    </row>
+    <row r="35" spans="1:5" ht="18" thickBot="1">
+      <c r="A35" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="35"/>
+    </row>
+    <row r="36" spans="1:5" ht="18" thickBot="1">
+      <c r="A36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2035</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="35"/>
+    </row>
+    <row r="37" spans="1:5" ht="18" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="35"/>
+    </row>
+    <row r="38" spans="1:5" ht="18" thickBot="1">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="35"/>
+    </row>
+    <row r="39" spans="1:5" ht="18" thickBot="1">
+      <c r="A39" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="11">
+        <v>2653</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" s="35"/>
+    </row>
+    <row r="40" spans="1:5" ht="18" thickBot="1">
+      <c r="A40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="3">
+        <v>112</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E40" s="35"/>
+    </row>
+    <row r="41" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A41" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="13">
+        <v>7488</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="35"/>
+    </row>
+    <row r="42" spans="1:5" ht="18" thickBot="1">
+      <c r="A42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3673</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="35"/>
+    </row>
+    <row r="43" spans="1:5" ht="18" thickBot="1">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="3">
+        <v>4138</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="35"/>
+    </row>
+    <row r="44" spans="1:5" ht="18" thickBot="1">
+      <c r="A44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="3">
+        <v>25221</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="35"/>
+    </row>
+    <row r="45" spans="1:5" ht="18" thickBot="1">
+      <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="3">
+        <v>215</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="35"/>
+    </row>
+    <row r="46" spans="1:5" ht="18" thickBot="1">
+      <c r="A46" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="7">
+        <v>710</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" thickBot="1">
+      <c r="A47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1095</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" thickBot="1">
+      <c r="A48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="3">
+        <v>433</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E48" s="40"/>
+    </row>
+    <row r="49" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A49" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="13">
+        <v>1719</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" s="35"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A50" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="14">
+        <v>48</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="37" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A51" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1880</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="35"/>
+    </row>
+    <row r="52" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A52" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="13">
+        <v>6892</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E52" s="35"/>
+    </row>
+    <row r="53" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A53" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="13">
+        <v>3659</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" s="35"/>
+    </row>
+    <row r="54" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A54" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="13">
+        <v>5421</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="35"/>
+    </row>
+    <row r="55" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A55" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="13">
+        <v>191</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E55" s="35"/>
+    </row>
+    <row r="56" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A56" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="13">
+        <v>1492</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="35"/>
+    </row>
+    <row r="57" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="13">
+        <v>2292</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="35"/>
+    </row>
+    <row r="58" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="13">
+        <v>2722</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E58" s="35"/>
+    </row>
+    <row r="59" spans="1:5" ht="18" thickBot="1">
+      <c r="A59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="3">
+        <v>5874</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="35"/>
+    </row>
+    <row r="60" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A60" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B60" s="13">
+        <v>2642</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E60" s="35"/>
+    </row>
+    <row r="61" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A61" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="13">
+        <v>2475</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="35"/>
+    </row>
+    <row r="62" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A62" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="13">
+        <v>1653</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="35"/>
+    </row>
+    <row r="63" spans="1:5" ht="18" thickBot="1">
+      <c r="A63" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="3">
+        <v>3739</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E63" s="35"/>
+    </row>
+    <row r="64" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A64" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B64" s="15">
+        <v>23032</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A65" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="13">
+        <v>4875</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" s="35"/>
+    </row>
+    <row r="66" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A66" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="13">
+        <v>1677</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E66" s="35"/>
+    </row>
+    <row r="67" spans="1:5" ht="18" thickBot="1">
+      <c r="A67" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="12">
+        <v>1620</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67" s="39"/>
+    </row>
+    <row r="68" spans="1:5" ht="18" thickBot="1">
+      <c r="A68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2039</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E68" s="35"/>
+    </row>
+    <row r="69" spans="1:5" ht="18" thickBot="1">
+      <c r="A69" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2541</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" s="35"/>
+    </row>
+    <row r="70" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A70" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E70" s="35"/>
+    </row>
+    <row r="71" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A71" s="13">
+        <v>36383</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D71" s="13"/>
+      <c r="E71" s="35"/>
+    </row>
+    <row r="72" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A72" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="13">
+        <v>1302</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="13"/>
+      <c r="E72" s="35"/>
+    </row>
+    <row r="73" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A73" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" s="13">
+        <v>520</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="35"/>
+    </row>
+    <row r="74" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A74" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="13">
+        <v>702</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E74" s="35"/>
+    </row>
+    <row r="75" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A75" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="13">
+        <v>18</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" s="35"/>
+    </row>
+    <row r="76" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A76" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="13">
+        <v>6387</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E76" s="35"/>
+    </row>
+    <row r="77" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A77" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B77" s="13">
+        <v>2414</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" s="35"/>
+    </row>
+    <row r="78" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A78" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="13">
+        <v>1454</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E78" s="35"/>
+    </row>
+    <row r="79" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A79" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" s="13">
+        <v>2260</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E79" s="35"/>
+    </row>
+    <row r="80" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A80" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="13">
+        <v>1529</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E80" s="35"/>
+    </row>
+    <row r="81" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A81" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="13">
+        <v>4312</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E81" s="35"/>
+    </row>
+    <row r="82" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A82" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="13">
+        <v>1561</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E82" s="35"/>
+    </row>
+    <row r="83" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A83" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="13">
+        <v>1931</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E83" s="35"/>
+    </row>
+    <row r="84" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A84" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="13">
+        <v>753</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E84" s="35"/>
+    </row>
+    <row r="85" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A85" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B85" s="13">
+        <v>304</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85" s="35"/>
+    </row>
+    <row r="86" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A86" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="13">
+        <v>627</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E86" s="35"/>
+    </row>
+    <row r="87" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A87" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B87" s="13">
+        <v>5175</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E87" s="35"/>
+    </row>
+    <row r="88" spans="1:5" ht="18" thickBot="1">
+      <c r="A88" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="17">
+        <v>4182</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="E88" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A89" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="18">
+        <v>7197</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="D89" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A90" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" s="14">
+        <v>1137</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E90" s="37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="18" thickBot="1">
+      <c r="A91" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" s="3">
+        <v>389</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E91" s="35"/>
+    </row>
+    <row r="92" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A92" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E92" s="35"/>
+    </row>
+    <row r="93" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A93" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E93" s="35"/>
+    </row>
+    <row r="94" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A94" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="13">
+        <v>192</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="E94" s="35"/>
+    </row>
+    <row r="95" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A95" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="13">
+        <v>192</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E95" s="35"/>
+    </row>
+    <row r="96" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A96" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" s="13">
+        <v>1155</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E96" s="35"/>
+    </row>
+    <row r="97" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A97" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B97" s="13">
+        <v>573</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E97" s="35"/>
+    </row>
+    <row r="98" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A98" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" s="13">
+        <v>1457</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E98" s="35"/>
+    </row>
+    <row r="99" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A99" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="13">
+        <v>1663</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E99" s="35"/>
+    </row>
+    <row r="100" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A100" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="19">
+        <v>953</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" s="35"/>
+    </row>
+    <row r="101" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A101" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101" s="13">
+        <v>961</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="E101" s="35"/>
+    </row>
+    <row r="102" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A102" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="13">
+        <v>7311</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E102" s="35"/>
+    </row>
+    <row r="103" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A103" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="13">
+        <v>1836</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E103" s="35"/>
+    </row>
+    <row r="104" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A104" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B104" s="13">
+        <v>1500</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" s="35"/>
+    </row>
+    <row r="105" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A105" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" s="13">
+        <v>1521</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E105" s="35"/>
+    </row>
+    <row r="106" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A106" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B106" s="13">
+        <v>2909</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E106" s="35"/>
+    </row>
+    <row r="107" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A107" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" s="13">
+        <v>1406</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E107" s="35"/>
+    </row>
+    <row r="108" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A108" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108" s="13">
+        <v>22</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E108" s="35"/>
+    </row>
+    <row r="109" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A109" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B109" s="13">
+        <v>2292</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E109" s="35"/>
+    </row>
+    <row r="110" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A110" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B110" s="13">
+        <v>496</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E110" s="35"/>
+    </row>
+    <row r="111" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A111" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B111" s="13">
+        <v>1713</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E111" s="35"/>
+    </row>
+    <row r="112" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A112" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B112" s="13">
+        <v>1714</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E112" s="35"/>
+    </row>
+    <row r="113" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A113" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B113" s="13">
+        <v>79</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E113" s="35"/>
+    </row>
+    <row r="114" spans="1:5" ht="18" thickBot="1">
+      <c r="A114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="3">
+        <v>3406</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D114" s="13"/>
+      <c r="E114" s="35"/>
+    </row>
+    <row r="115" spans="1:5" ht="18" thickBot="1">
+      <c r="A115" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B115" s="11">
+        <v>8409</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" s="13"/>
+      <c r="E115" s="35"/>
+    </row>
+    <row r="116" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A116" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B116" s="13">
+        <v>703</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D116" s="21"/>
+      <c r="E116" s="35"/>
+    </row>
+    <row r="117" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A117" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B117" s="13">
+        <v>7229</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D117" s="21"/>
+      <c r="E117" s="35"/>
+    </row>
+    <row r="118" spans="1:5" ht="18" thickBot="1">
+      <c r="A118" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="5">
+        <v>3318</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D118" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E118" s="35"/>
+    </row>
+    <row r="119" spans="1:5" ht="18" thickBot="1">
+      <c r="A119" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" s="3">
+        <v>3002</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D119" s="21"/>
+      <c r="E119" s="35"/>
+    </row>
+    <row r="120" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A120" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120" s="13">
+        <v>5994</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D120" s="21"/>
+      <c r="E120" s="35"/>
+    </row>
+    <row r="121" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A121" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" s="21">
+        <v>331</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D121" s="21"/>
+      <c r="E121" s="35"/>
+    </row>
+    <row r="122" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A122" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D122" s="21"/>
+      <c r="E122" s="35"/>
+    </row>
+    <row r="123" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A123" s="21"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D123" s="21"/>
+      <c r="E123" s="35"/>
+    </row>
+    <row r="124" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A124" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B124" s="22">
+        <v>1464</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A125" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B125" s="22">
+        <v>2625</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A126" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" s="21">
+        <v>647</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E126" s="35"/>
+    </row>
+    <row r="127" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A127" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="21">
+        <v>1050</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E127" s="35"/>
+    </row>
+    <row r="128" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A128" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B128" s="21">
+        <v>1336</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E128" s="35"/>
+    </row>
+    <row r="129" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A129" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B129" s="23">
+        <v>2856</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D129" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E129" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A130" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B130" s="21">
+        <v>3028</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E130" s="35"/>
+    </row>
+    <row r="131" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A131" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B131" s="21">
+        <v>2546</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E131" s="35"/>
+    </row>
+    <row r="132" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A132" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B132" s="21">
+        <v>2396</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="E132" s="35"/>
+    </row>
+    <row r="133" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A133" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B133" s="21">
+        <v>1663</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="E133" s="35"/>
+    </row>
+    <row r="134" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A134" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B134" s="21">
+        <v>1180</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E134" s="35"/>
+    </row>
+    <row r="135" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A135" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B135" s="21">
+        <v>934</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="E135" s="35"/>
+    </row>
+    <row r="136" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A136" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B136" s="21">
+        <v>625</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E136" s="35"/>
+    </row>
+    <row r="137" spans="1:5" ht="17.25" thickBot="1">
+      <c r="A137" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B137" s="21">
+        <v>2934</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E137" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\Desktop\android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5955B7-92F6-4806-B016-C26FD3F33E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32FB0CD-90AD-4C15-90EC-B9EECDB50BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
+    <workbookView xWindow="2730" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
   </bookViews>
   <sheets>
-    <sheet name="Part" sheetId="1" r:id="rId1"/>
+    <sheet name="part" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32FB0CD-90AD-4C15-90EC-B9EECDB50BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170A18D3-8B6F-4DE2-A679-84FD27AF2B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="270" windowWidth="21600" windowHeight="15210" xr2:uid="{5C96DD37-715B-4073-9C19-553076670C77}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Part#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>CCCCCCasdfasdfasdfasdfasdfasd</t>
+  </si>
+  <si>
+    <t>사용함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>House</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -498,7 +506,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -543,7 +551,9 @@
         <v>11</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
@@ -561,7 +571,9 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>8</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -528,10 +528,10 @@
         <v>AA</v>
       </c>
       <c r="D6" t="str">
-        <v>rg</v>
+        <v>HYUNSU USE</v>
       </c>
       <c r="E6" t="str">
-        <v>rg</v>
+        <v>FACTORY</v>
       </c>
       <c r="F6" t="str">
         <v>A3</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -528,7 +528,7 @@
         <v>AA</v>
       </c>
       <c r="D6" t="str">
-        <v>HYUNSU USE</v>
+        <v>HYUNSU USE real??</v>
       </c>
       <c r="E6" t="str">
         <v>FACTORY</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -436,7 +436,7 @@
         <v>AA</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>testtest</v>
       </c>
       <c r="E2" t="str">
         <v>House</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -436,7 +436,7 @@
         <v>AA</v>
       </c>
       <c r="D2" t="str">
-        <v>testtest</v>
+        <v>testtest123123</v>
       </c>
       <c r="E2" t="str">
         <v>House</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -439,7 +439,7 @@
         <v>testtest123123</v>
       </c>
       <c r="E2" t="str">
-        <v>House</v>
+        <v>House5634</v>
       </c>
       <c r="F2" t="str">
         <v>A4</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -436,7 +436,7 @@
         <v>AA</v>
       </c>
       <c r="D2" t="str">
-        <v>testtest123123</v>
+        <v>21341234testtest123123</v>
       </c>
       <c r="E2" t="str">
         <v>House5634</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -436,7 +436,7 @@
         <v>AA</v>
       </c>
       <c r="D2" t="str">
-        <v>21341234testtest123123</v>
+        <v>HI!</v>
       </c>
       <c r="E2" t="str">
         <v>House5634</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -482,10 +482,10 @@
         <v>BB</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>RG</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>RGRG</v>
       </c>
       <c r="F4" t="str">
         <v>A4</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -482,7 +482,7 @@
         <v>BB</v>
       </c>
       <c r="D4" t="str">
-        <v>RG</v>
+        <v>RG123123</v>
       </c>
       <c r="E4" t="str">
         <v>RGRG</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -482,10 +482,10 @@
         <v>BB</v>
       </c>
       <c r="D4" t="str">
-        <v>RG123123</v>
+        <v>KFC</v>
       </c>
       <c r="E4" t="str">
-        <v>RGRG</v>
+        <v>Burger</v>
       </c>
       <c r="F4" t="str">
         <v>A4</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -528,7 +528,7 @@
         <v>AA</v>
       </c>
       <c r="D6" t="str">
-        <v>HYUNSU USE real??</v>
+        <v>HYUNSU USE haha</v>
       </c>
       <c r="E6" t="str">
         <v>FACTORY</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -528,7 +528,7 @@
         <v>AA</v>
       </c>
       <c r="D6" t="str">
-        <v>HYUNSU USE haha</v>
+        <v>Bonggun</v>
       </c>
       <c r="E6" t="str">
         <v>FACTORY</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -436,7 +436,7 @@
         <v>AA</v>
       </c>
       <c r="D2" t="str">
-        <v>HI!</v>
+        <v>bye</v>
       </c>
       <c r="E2" t="str">
         <v>House5634</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -531,7 +531,7 @@
         <v>Bonggun</v>
       </c>
       <c r="E6" t="str">
-        <v>FACTORY</v>
+        <v>babo</v>
       </c>
       <c r="F6" t="str">
         <v>A3</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -436,7 +436,7 @@
         <v>AA</v>
       </c>
       <c r="D2" t="str">
-        <v>bye</v>
+        <v>notebook</v>
       </c>
       <c r="E2" t="str">
         <v>House5634</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -528,10 +528,10 @@
         <v>AA</v>
       </c>
       <c r="D6" t="str">
-        <v>Bonggun</v>
+        <v>kekekek</v>
       </c>
       <c r="E6" t="str">
-        <v>babo</v>
+        <v>kekekeke</v>
       </c>
       <c r="F6" t="str">
         <v>A3</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -436,7 +436,7 @@
         <v>AA</v>
       </c>
       <c r="D2" t="str">
-        <v>notebook</v>
+        <v>notebookwerwqerqer</v>
       </c>
       <c r="E2" t="str">
         <v>House5634</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -528,7 +528,7 @@
         <v>AA</v>
       </c>
       <c r="D6" t="str">
-        <v>kekekek</v>
+        <v>change?</v>
       </c>
       <c r="E6" t="str">
         <v>kekekeke</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -436,7 +436,7 @@
         <v>AA</v>
       </c>
       <c r="D2" t="str">
-        <v>notebookwerwqerqer</v>
+        <v>1237819312798</v>
       </c>
       <c r="E2" t="str">
         <v>House5634</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -436,7 +436,7 @@
         <v>AA</v>
       </c>
       <c r="D2" t="str">
-        <v>1237819312798</v>
+        <v>PM1440</v>
       </c>
       <c r="E2" t="str">
         <v>House5634</v>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyow\BRKR-SERVER\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5C309B-F912-4233-8B94-39C8AB2F29CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4AA487-AD4D-4118-B8C6-85AC9D674B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1564,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3599,6 +3599,11 @@
       </c>
       <c r="E137" s="34"/>
     </row>
+    <row r="138" spans="1:5">
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -1981,7 +1981,7 @@
         <v>성균관대 CORE400꺼  수리해 온것</v>
       </c>
       <c r="E69" t="str">
-        <v>봉근테스트</v>
+        <v/>
       </c>
       <c r="F69" t="str">
         <v/>
@@ -2530,10 +2530,10 @@
         <v>BOSSI  S1</v>
       </c>
       <c r="D93" t="str">
-        <v>3개</v>
+        <v/>
       </c>
       <c r="E93" t="str">
-        <v>bgtest</v>
+        <v/>
       </c>
       <c r="F93" t="str">
         <v/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -2530,7 +2530,7 @@
         <v>BOSSI  S1</v>
       </c>
       <c r="D93" t="str">
-        <v/>
+        <v>3ea</v>
       </c>
       <c r="E93" t="str">
         <v/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -506,7 +506,7 @@
         <v>BSMS/2 SCB20 SHIM BD</v>
       </c>
       <c r="D5" t="str">
-        <v>지금 창고에 있음. HD에 안붙은 경험 있음. 데모장비에 확인 필요.</v>
+        <v>지금 창고에 있음. HD에 안붙은 경험 있음. 데모장비에 확인 필요..</v>
       </c>
       <c r="E5" t="str">
         <v/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -2530,10 +2530,10 @@
         <v>BOSSI  S1</v>
       </c>
       <c r="D93" t="str">
-        <v>3ea</v>
+        <v>3개중 1개사용</v>
       </c>
       <c r="E93" t="str">
-        <v/>
+        <v>사무실</v>
       </c>
       <c r="F93" t="str">
         <v/>

--- a/assets/Part.xlsx
+++ b/assets/Part.xlsx
@@ -2530,10 +2530,10 @@
         <v>BOSSI  S1</v>
       </c>
       <c r="D93" t="str">
-        <v>3개중 1개사용</v>
+        <v>3개</v>
       </c>
       <c r="E93" t="str">
-        <v>사무실</v>
+        <v/>
       </c>
       <c r="F93" t="str">
         <v/>
